--- a/历年电赛小车功能汇总2022-2015.xlsx
+++ b/历年电赛小车功能汇总2022-2015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李琪震\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李琪震\Desktop\abc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2252860F-0713-491D-AE0F-7366E48030DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CEB142-281B-4B02-8867-841329774848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D9877CE-6CBF-47C2-846B-32273BDE3A19}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4D9877CE-6CBF-47C2-846B-32273BDE3A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +250,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,13 +370,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,19 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,13 +740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865D9BA5-CEE8-4B07-9631-77C10525A7D1}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
@@ -743,14 +754,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -773,11 +784,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
+      <c r="A3" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
@@ -793,8 +804,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
@@ -809,8 +820,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
@@ -823,8 +834,8 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
@@ -837,11 +848,11 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -857,8 +868,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -873,8 +884,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -889,10 +900,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>2020</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1"/>
@@ -903,8 +914,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -913,10 +924,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>2018</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -929,8 +940,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -939,40 +950,40 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -990,5 +1001,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>